--- a/admin/CTST_Event_Summary_Results.xlsx
+++ b/admin/CTST_Event_Summary_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\github\ctst-dev\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D827E44E-A9AE-469D-8BCD-77216005A8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4E991-5B90-4C4E-9F10-7409E681C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,169 +508,166 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,56 +689,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>243879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEBA16B-CB83-428E-925A-7418611D79AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="0"/>
-          <a:ext cx="1117600" cy="1158279"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -801,30 +748,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>593520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>216666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1" descr="CTST Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D06BB9-5D74-0811-BFFB-BC983ACDAB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7375A243-D277-79FE-9C1E-B8702A65A082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,8 +788,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="50800"/>
-          <a:ext cx="1139620" cy="1181100"/>
+          <a:off x="38101" y="38101"/>
+          <a:ext cx="1085849" cy="1092965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,27 +801,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>593520</xdr:colOff>
+      <xdr:colOff>444499</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>273815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3" descr="CTST Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75301854-0286-489E-9B61-E2959F3F96AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5B6581-6473-44E6-8A06-2DDF43312522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,8 +843,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="50800"/>
-          <a:ext cx="1139620" cy="1181100"/>
+          <a:off x="82550" y="95250"/>
+          <a:ext cx="1085849" cy="1092965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,27 +856,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>593520</xdr:colOff>
+      <xdr:colOff>406399</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>235715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2" descr="CTST Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBADFED6-B4EF-4696-BA32-AB0636D9CF14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69B6688-0418-4575-8279-D9D8D82754BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="50800"/>
-          <a:ext cx="1139620" cy="1181100"/>
+          <a:off x="44450" y="57150"/>
+          <a:ext cx="1085849" cy="1092965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,27 +911,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>593520</xdr:colOff>
+      <xdr:colOff>412749</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>242065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2" descr="CTST Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B721B2-287E-4F55-89BF-79626ADFA06E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322623EA-59C8-47D8-BB4D-EA8C02EBA6A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,8 +953,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="50800"/>
-          <a:ext cx="1139620" cy="1181100"/>
+          <a:off x="50800" y="63500"/>
+          <a:ext cx="1085849" cy="1092965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,27 +966,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>593520</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:rowOff>229365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2" descr="CTST Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3DDA7B-69A9-48E2-BA82-5D34A1AB710A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE8E6ED-F4F0-4D7D-BB05-92E4B5A3E9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,8 +1008,63 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="50800"/>
-          <a:ext cx="1139620" cy="1181100"/>
+          <a:off x="57150" y="50800"/>
+          <a:ext cx="1085849" cy="1092965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>248415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CTST Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC7DD7D-3492-4638-B9AA-03B0F80B5603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="69850"/>
+          <a:ext cx="1085849" cy="1092965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,7 +1342,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1366,70 +1363,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="5" t="s">
@@ -1437,25 +1434,25 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="19"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
@@ -1463,394 +1460,394 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="19"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="38" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="38" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" ht="27.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="44"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="44"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="40" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
     </row>
     <row r="29" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="52" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="3:11" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="3:11" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="3:11" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -1861,17 +1858,6 @@
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K10"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
@@ -1879,6 +1865,13 @@
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="C34:K34"/>
@@ -1895,18 +1888,22 @@
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I31" r:id="rId1" xr:uid="{BD6EDF51-B30D-443B-B3AF-A915A1EB3E91}"/>
@@ -1925,7 +1922,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -1940,120 +1937,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
@@ -2062,10 +2059,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2074,154 +2071,154 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="62">
+      <c r="A16" s="20">
         <v>3</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="62">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="65"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="65"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62">
+      <c r="A21" s="20">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="65"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62">
+      <c r="A22" s="20">
         <v>9</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="65"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62">
+      <c r="A23" s="20">
         <v>10</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62">
+      <c r="A24" s="20">
         <v>11</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62">
+      <c r="A25" s="20">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="62">
+      <c r="A27" s="20">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2246,17 +2243,17 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
@@ -2272,7 +2269,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -2287,120 +2284,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
@@ -2409,10 +2406,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2421,154 +2418,154 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="62">
+      <c r="A16" s="20">
         <v>3</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="62">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="65"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="65"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62">
+      <c r="A21" s="20">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="65"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62">
+      <c r="A22" s="20">
         <v>9</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="65"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62">
+      <c r="A23" s="20">
         <v>10</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62">
+      <c r="A24" s="20">
         <v>11</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62">
+      <c r="A25" s="20">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="62">
+      <c r="A27" s="20">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2579,11 +2576,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B12:D12"/>
@@ -2591,6 +2583,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:F7"/>
@@ -2598,12 +2595,12 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
@@ -2619,7 +2616,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -2634,120 +2631,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
@@ -2756,10 +2753,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2768,154 +2765,154 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="62">
+      <c r="A16" s="20">
         <v>3</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="62">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="65"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="65"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62">
+      <c r="A21" s="20">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="65"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62">
+      <c r="A22" s="20">
         <v>9</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="65"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62">
+      <c r="A23" s="20">
         <v>10</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62">
+      <c r="A24" s="20">
         <v>11</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62">
+      <c r="A25" s="20">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="62">
+      <c r="A27" s="20">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2926,11 +2923,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B12:D12"/>
@@ -2938,6 +2930,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:F7"/>
@@ -2945,12 +2942,12 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
@@ -2966,7 +2963,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -2981,120 +2978,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
@@ -3103,10 +3100,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3115,154 +3112,154 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="62">
+      <c r="A16" s="20">
         <v>3</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="62">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="65"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="65"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62">
+      <c r="A21" s="20">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="65"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62">
+      <c r="A22" s="20">
         <v>9</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="65"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62">
+      <c r="A23" s="20">
         <v>10</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62">
+      <c r="A24" s="20">
         <v>11</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62">
+      <c r="A25" s="20">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="62">
+      <c r="A27" s="20">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -3273,11 +3270,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B12:D12"/>
@@ -3285,6 +3277,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:F7"/>
@@ -3292,12 +3289,12 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
@@ -3313,7 +3310,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -3328,120 +3325,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
@@ -3450,10 +3447,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3462,154 +3459,154 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="63"/>
       <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="62">
+      <c r="A16" s="20">
         <v>3</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="62">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="65"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62">
+      <c r="A19" s="20">
         <v>6</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="65"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="62">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="65"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62">
+      <c r="A21" s="20">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="65"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="62">
+      <c r="A22" s="20">
         <v>9</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="65"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62">
+      <c r="A23" s="20">
         <v>10</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="65"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62">
+      <c r="A24" s="20">
         <v>11</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62">
+      <c r="A25" s="20">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="62">
+      <c r="A27" s="20">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62">
+      <c r="A28" s="20">
         <v>15</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -3620,11 +3617,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B12:D12"/>
@@ -3632,6 +3624,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A7:F7"/>
@@ -3639,12 +3636,12 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
